--- a/Scrum/Proyect/Agile-project-charter-template.xlsx
+++ b/Scrum/Proyect/Agile-project-charter-template.xlsx
@@ -1,80 +1,128 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Macintosh Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>1</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="1" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>14.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>General Project Information</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Project Champion</t>
-  </si>
-  <si>
-    <t>Project Sponsor</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Stakeholders</t>
-  </si>
-  <si>
-    <t>Expected Start Date</t>
-  </si>
-  <si>
-    <t>Expected Completion Date</t>
-  </si>
-  <si>
-    <t>Mission</t>
-  </si>
-  <si>
-    <t>Vision</t>
-  </si>
-  <si>
-    <t>Success Metrics</t>
-  </si>
-  <si>
-    <t>Project Details</t>
-  </si>
-  <si>
-    <t>Agile Project Charter</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Create an Agile Project Charter in Smartsheet</t>
-  </si>
-</sst>
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Emily Esposito</dc:creator>
+  <cp:lastModifiedBy>Emily Esposito</cp:lastModifiedBy>
+  <cp:lastPrinted>2016-02-09T18:25:40Z</cp:lastPrinted>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2016-02-09T18:12:01Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2016-02-17T22:46:11Z</dcterms:modified>
+</cp:coreProperties>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\drawings\drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389695</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10007600"/>
+          <a:ext cx="9889295" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3429001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5727701</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5435601" y="152400"/>
+          <a:ext cx="2298700" cy="515976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -308,88 +356,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>389695</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10007600"/>
-          <a:ext cx="9889295" cy="4686300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3429001</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5727701</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>185776</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5435601" y="152400"/>
-          <a:ext cx="2298700" cy="515976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -709,7 +676,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -745,8 +731,10 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="23">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>Agile Project Charter</t>
+        </is>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -798,8 +786,10 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="20">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>General Project Information</t>
+        </is>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
@@ -817,8 +807,10 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="18">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
@@ -836,8 +828,10 @@
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="18">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Project Champion</t>
+        </is>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
@@ -855,8 +849,10 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Project Sponsor</t>
+        </is>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
@@ -874,8 +870,10 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="18">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
@@ -893,8 +891,10 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="18">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Stakeholders</t>
+        </is>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
@@ -912,8 +912,10 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="18">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Expected Start Date</t>
+        </is>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5"/>
@@ -931,8 +933,10 @@
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" ht="18">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Expected Completion Date</t>
+        </is>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5"/>
@@ -967,8 +971,10 @@
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" ht="20">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Project Details</t>
+        </is>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
@@ -986,8 +992,10 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="11" t="s">
-        <v>8</v>
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>Mission</t>
+        </is>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="5"/>
@@ -1107,8 +1115,10 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="11" t="s">
-        <v>9</v>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>Vision</t>
+        </is>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="5"/>
@@ -1228,8 +1238,10 @@
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="11" t="s">
-        <v>13</v>
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>Scope</t>
+        </is>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="5"/>
@@ -1349,8 +1361,10 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="11" t="s">
-        <v>10</v>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>Success Metrics</t>
+        </is>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="5"/>
@@ -1470,11 +1484,15 @@
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="10" t="s">
-        <v>15</v>
+      <c r="A43" s="10" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>14</v>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date: </t>
+        </is>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1525,8 +1543,10 @@
       <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="17" t="s">
-        <v>16</v>
+      <c r="A46" s="17" t="inlineStr">
+        <is>
+          <t>Create an Agile Project Charter in Smartsheet</t>
+        </is>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
